--- a/weather_new_york/places.xlsx
+++ b/weather_new_york/places.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>http://w1.weather.gov/xml/current_obs/KPBG.xml</t>
-  </si>
-  <si>
-    <t>44.65 </t>
   </si>
   <si>
     <t>http://w1.weather.gov/xml/current_obs/KPOU.xml</t>
@@ -414,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,27 +800,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -843,7 +840,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -863,7 +860,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -883,7 +880,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -923,7 +920,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -983,7 +980,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1003,7 +1000,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1023,7 +1020,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1043,7 +1040,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1063,7 +1060,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -1083,7 +1080,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1143,7 +1140,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1183,7 +1180,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -1243,7 +1240,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
@@ -1263,7 +1260,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
@@ -1403,13 +1400,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
+      <c r="C31" s="3">
+        <v>44.65</v>
       </c>
       <c r="D31" s="3">
         <v>-73.466669999999993</v>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -1438,12 +1435,12 @@
         <v>12590</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -1458,12 +1455,12 @@
         <v>14624</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
@@ -1478,12 +1475,12 @@
         <v>12983</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
@@ -1498,12 +1495,12 @@
         <v>12302</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -1518,12 +1515,12 @@
         <v>11967</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
@@ -1538,12 +1535,12 @@
         <v>13152</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -1558,12 +1555,12 @@
         <v>13212</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
@@ -1578,12 +1575,12 @@
         <v>11978</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -1598,12 +1595,12 @@
         <v>13634</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -1618,12 +1615,12 @@
         <v>14895</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -1638,7 +1635,7 @@
         <v>10604</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/weather_new_york/places.xlsx
+++ b/weather_new_york/places.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyang/PycharmProjects/New_York_Weather/weather_new_york/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -411,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,20 +796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="72.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="2" max="2" width="72.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -818,7 +829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -838,7 +849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -858,7 +869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -878,7 +889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -898,7 +909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -918,7 +929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -938,7 +949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -958,7 +969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -978,7 +989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1018,7 +1029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1078,7 +1089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1098,7 +1109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1118,7 +1129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1238,7 +1249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1298,7 +1309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -1318,7 +1329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1418,7 +1429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -1438,7 +1449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -1458,7 +1469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -1498,7 +1509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -1538,7 +1549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>43.99194</v>
       </c>
       <c r="D40" s="3">
-        <v>-43.99194</v>
+        <v>-76.02167</v>
       </c>
       <c r="E40" s="3">
         <v>13634</v>
@@ -1598,7 +1609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>128</v>
       </c>
